--- a/Agg/results/study/comb/comb_condens_150-Medium_2024-07-25_09.xlsx
+++ b/Agg/results/study/comb/comb_condens_150-Medium_2024-07-25_09.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Doktor\Dissertation\Paper 1\Code\col\columngeneration\Agg\results\study\comb\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B903BE-77C6-41D9-9761-A32A2521BCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-26460" yWindow="9830" windowWidth="23040" windowHeight="12200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -52,8 +58,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,13 +122,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +174,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -194,6 +208,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -228,9 +243,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -403,14 +419,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>150</v>
       </c>
@@ -456,13 +474,13 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>7.40667</v>
+        <v>7.46</v>
       </c>
       <c r="E2">
-        <v>7.40667</v>
+        <v>7.4066700000000001</v>
       </c>
       <c r="F2">
-        <v>7.40667</v>
+        <v>7.46</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -471,7 +489,7 @@
         <v>7.46</v>
       </c>
       <c r="I2">
-        <v>6.43729</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J2">
         <v>7.46</v>
@@ -480,7 +498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>150</v>
       </c>
@@ -491,13 +509,13 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>7.17333</v>
+        <v>7.46</v>
       </c>
       <c r="E3">
         <v>6.82667</v>
       </c>
       <c r="F3">
-        <v>7.17333</v>
+        <v>7.46</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -506,7 +524,7 @@
         <v>7.46</v>
       </c>
       <c r="I3">
-        <v>6.43729</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J3">
         <v>7.46</v>
@@ -515,7 +533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>150</v>
       </c>
@@ -526,13 +544,13 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>7.44667</v>
+        <v>7.46</v>
       </c>
       <c r="E4">
-        <v>7.44667</v>
+        <v>7.4466700000000001</v>
       </c>
       <c r="F4">
-        <v>7.44667</v>
+        <v>7.46</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -541,7 +559,7 @@
         <v>7.46</v>
       </c>
       <c r="I4">
-        <v>6.43729</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J4">
         <v>7.46</v>
@@ -550,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>150</v>
       </c>
@@ -561,13 +579,13 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>7.18</v>
+        <v>7.46</v>
       </c>
       <c r="E5">
         <v>7.34</v>
       </c>
       <c r="F5">
-        <v>7.18</v>
+        <v>7.46</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -576,7 +594,7 @@
         <v>7.46</v>
       </c>
       <c r="I5">
-        <v>6.43729</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J5">
         <v>7.46</v>
@@ -585,7 +603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>150</v>
       </c>
@@ -596,13 +614,13 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>7.22667</v>
+        <v>7.46</v>
       </c>
       <c r="E6">
         <v>7.48</v>
       </c>
       <c r="F6">
-        <v>7.22667</v>
+        <v>7.46</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -611,7 +629,7 @@
         <v>7.46</v>
       </c>
       <c r="I6">
-        <v>6.43729</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J6">
         <v>7.46</v>
@@ -620,7 +638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>150</v>
       </c>
@@ -637,25 +655,25 @@
         <v>4.26</v>
       </c>
       <c r="F7">
-        <v>7.51333</v>
+        <v>7.5133299999999998</v>
       </c>
       <c r="G7">
-        <v>0.0308</v>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="H7">
-        <v>7.93088</v>
+        <v>7.9308800000000002</v>
       </c>
       <c r="I7">
-        <v>6.82521</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J7">
         <v>7.46</v>
       </c>
       <c r="K7">
-        <v>0.47088</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>0.47088000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>150</v>
       </c>
@@ -666,31 +684,31 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>7.59853</v>
+        <v>7.5985300000000002</v>
       </c>
       <c r="E8">
-        <v>3.96667</v>
+        <v>3.9666700000000001</v>
       </c>
       <c r="F8">
-        <v>7.54667</v>
+        <v>7.5466699999999998</v>
       </c>
       <c r="G8">
-        <v>0.05187</v>
+        <v>5.1869999999999999E-2</v>
       </c>
       <c r="H8">
-        <v>8.14851</v>
+        <v>8.1485099999999999</v>
       </c>
       <c r="I8">
-        <v>6.82521</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J8">
         <v>7.46</v>
       </c>
       <c r="K8">
-        <v>0.68851</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>0.68850999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>150</v>
       </c>
@@ -701,31 +719,31 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>7.64213</v>
+        <v>7.6421299999999999</v>
       </c>
       <c r="E9">
         <v>3.92</v>
       </c>
       <c r="F9">
-        <v>7.57333</v>
+        <v>7.5733300000000003</v>
       </c>
       <c r="G9">
-        <v>0.0688</v>
+        <v>6.88E-2</v>
       </c>
       <c r="H9">
-        <v>8.346259999999999</v>
+        <v>8.3462599999999991</v>
       </c>
       <c r="I9">
-        <v>6.82521</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J9">
         <v>7.46</v>
       </c>
       <c r="K9">
-        <v>0.88626</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>0.88626000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>150</v>
       </c>
@@ -736,22 +754,22 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>7.68333</v>
+        <v>7.6833299999999998</v>
       </c>
       <c r="E10">
-        <v>3.74667</v>
+        <v>3.7466699999999999</v>
       </c>
       <c r="F10">
-        <v>7.56667</v>
+        <v>7.5666700000000002</v>
       </c>
       <c r="G10">
         <v>0.11667</v>
       </c>
       <c r="H10">
-        <v>8.48058</v>
+        <v>8.4805799999999998</v>
       </c>
       <c r="I10">
-        <v>6.82521</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J10">
         <v>7.46</v>
@@ -760,7 +778,7 @@
         <v>1.02058</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>150</v>
       </c>
@@ -771,22 +789,22 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>7.69013</v>
+        <v>7.6901299999999999</v>
       </c>
       <c r="E11">
-        <v>3.60667</v>
+        <v>3.6066699999999998</v>
       </c>
       <c r="F11">
-        <v>7.54667</v>
+        <v>7.5466699999999998</v>
       </c>
       <c r="G11">
-        <v>0.14347</v>
+        <v>0.14346999999999999</v>
       </c>
       <c r="H11">
-        <v>8.57321</v>
+        <v>8.5732099999999996</v>
       </c>
       <c r="I11">
-        <v>6.82521</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J11">
         <v>7.46</v>
@@ -795,7 +813,7 @@
         <v>1.11321</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>150</v>
       </c>
@@ -806,31 +824,31 @@
         <v>3</v>
       </c>
       <c r="D12">
-        <v>7.59867</v>
+        <v>7.5986700000000003</v>
       </c>
       <c r="E12">
-        <v>4.20667</v>
+        <v>4.2066699999999999</v>
       </c>
       <c r="F12">
-        <v>7.53333</v>
+        <v>7.5333300000000003</v>
       </c>
       <c r="G12">
-        <v>0.06533</v>
+        <v>6.5329999999999999E-2</v>
       </c>
       <c r="H12">
         <v>8.32911</v>
       </c>
       <c r="I12">
-        <v>6.64198</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J12">
         <v>7.46</v>
       </c>
       <c r="K12">
-        <v>0.86911</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>0.86911000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>150</v>
       </c>
@@ -841,31 +859,31 @@
         <v>4</v>
       </c>
       <c r="D13">
-        <v>7.6352</v>
+        <v>7.6352000000000002</v>
       </c>
       <c r="E13">
         <v>3.76</v>
       </c>
       <c r="F13">
-        <v>7.56667</v>
+        <v>7.5666700000000002</v>
       </c>
       <c r="G13">
-        <v>0.06852999999999999</v>
+        <v>6.8529999999999994E-2</v>
       </c>
       <c r="H13">
-        <v>8.605650000000001</v>
+        <v>8.6056500000000007</v>
       </c>
       <c r="I13">
-        <v>6.64198</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J13">
         <v>7.46</v>
       </c>
       <c r="K13">
-        <v>1.14565</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>1.1456500000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>150</v>
       </c>
@@ -876,31 +894,31 @@
         <v>5</v>
       </c>
       <c r="D14">
-        <v>7.71253</v>
+        <v>7.7125300000000001</v>
       </c>
       <c r="E14">
-        <v>3.58667</v>
+        <v>3.5866699999999998</v>
       </c>
       <c r="F14">
-        <v>7.60667</v>
+        <v>7.6066700000000003</v>
       </c>
       <c r="G14">
-        <v>0.10587</v>
+        <v>0.10587000000000001</v>
       </c>
       <c r="H14">
-        <v>9.00719</v>
+        <v>9.0071899999999996</v>
       </c>
       <c r="I14">
-        <v>6.64198</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J14">
         <v>7.46</v>
       </c>
       <c r="K14">
-        <v>1.54719</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>1.5471900000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>150</v>
       </c>
@@ -911,7 +929,7 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>7.79813</v>
+        <v>7.7981299999999996</v>
       </c>
       <c r="E15">
         <v>3.36</v>
@@ -920,13 +938,13 @@
         <v>7.64</v>
       </c>
       <c r="G15">
-        <v>0.15813</v>
+        <v>0.15812999999999999</v>
       </c>
       <c r="H15">
-        <v>9.19993</v>
+        <v>9.1999300000000002</v>
       </c>
       <c r="I15">
-        <v>6.64198</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J15">
         <v>7.46</v>
@@ -935,7 +953,7 @@
         <v>1.73993</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>150</v>
       </c>
@@ -946,22 +964,22 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>7.8576</v>
+        <v>7.8575999999999997</v>
       </c>
       <c r="E16">
         <v>3.23333</v>
       </c>
       <c r="F16">
-        <v>7.59333</v>
+        <v>7.5933299999999999</v>
       </c>
       <c r="G16">
         <v>0.26427</v>
       </c>
       <c r="H16">
-        <v>9.327299999999999</v>
+        <v>9.3272999999999993</v>
       </c>
       <c r="I16">
-        <v>6.64198</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J16">
         <v>7.46</v>
@@ -970,7 +988,7 @@
         <v>1.8673</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>150</v>
       </c>
@@ -981,31 +999,31 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>7.6152</v>
+        <v>7.6151999999999997</v>
       </c>
       <c r="E17">
-        <v>3.94667</v>
+        <v>3.9466700000000001</v>
       </c>
       <c r="F17">
-        <v>7.55333</v>
+        <v>7.5533299999999999</v>
       </c>
       <c r="G17">
-        <v>0.06187</v>
+        <v>6.1870000000000001E-2</v>
       </c>
       <c r="H17">
-        <v>9.085330000000001</v>
+        <v>9.0853300000000008</v>
       </c>
       <c r="I17">
-        <v>6.98898</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J17">
         <v>7.46</v>
       </c>
       <c r="K17">
-        <v>1.62533</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>1.6253299999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>150</v>
       </c>
@@ -1016,31 +1034,31 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>7.66813</v>
+        <v>7.6681299999999997</v>
       </c>
       <c r="E18">
-        <v>3.61333</v>
+        <v>3.6133299999999999</v>
       </c>
       <c r="F18">
         <v>7.58</v>
       </c>
       <c r="G18">
-        <v>0.08813</v>
+        <v>8.813E-2</v>
       </c>
       <c r="H18">
-        <v>9.7156</v>
+        <v>9.7156000000000002</v>
       </c>
       <c r="I18">
-        <v>6.98898</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J18">
         <v>7.46</v>
       </c>
       <c r="K18">
-        <v>2.2556</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>2.2555999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>150</v>
       </c>
@@ -1051,31 +1069,31 @@
         <v>5</v>
       </c>
       <c r="D19">
-        <v>7.77853</v>
+        <v>7.7785299999999999</v>
       </c>
       <c r="E19">
         <v>3.26667</v>
       </c>
       <c r="F19">
-        <v>7.63333</v>
+        <v>7.6333299999999999</v>
       </c>
       <c r="G19">
         <v>0.1452</v>
       </c>
       <c r="H19">
-        <v>10.2696</v>
+        <v>10.269600000000001</v>
       </c>
       <c r="I19">
-        <v>6.98898</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J19">
         <v>7.46</v>
       </c>
       <c r="K19">
-        <v>2.8096</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>2.8096000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>150</v>
       </c>
@@ -1086,13 +1104,13 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <v>7.8828</v>
+        <v>7.8827999999999996</v>
       </c>
       <c r="E20">
-        <v>2.75333</v>
+        <v>2.7533300000000001</v>
       </c>
       <c r="F20">
-        <v>7.68667</v>
+        <v>7.6866700000000003</v>
       </c>
       <c r="G20">
         <v>0.19613</v>
@@ -1101,7 +1119,7 @@
         <v>10.63686</v>
       </c>
       <c r="I20">
-        <v>6.98898</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J20">
         <v>7.46</v>
@@ -1110,7 +1128,7 @@
         <v>3.17686</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>150</v>
       </c>
@@ -1121,31 +1139,31 @@
         <v>7</v>
       </c>
       <c r="D21">
-        <v>7.97267</v>
+        <v>7.9726699999999999</v>
       </c>
       <c r="E21">
-        <v>2.81333</v>
+        <v>2.8133300000000001</v>
       </c>
       <c r="F21">
-        <v>7.72667</v>
+        <v>7.7266700000000004</v>
       </c>
       <c r="G21">
         <v>0.246</v>
       </c>
       <c r="H21">
-        <v>10.95859</v>
+        <v>10.958589999999999</v>
       </c>
       <c r="I21">
-        <v>6.98898</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J21">
         <v>7.46</v>
       </c>
       <c r="K21">
-        <v>3.49859</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>3.4985900000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>150</v>
       </c>
@@ -1156,31 +1174,31 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>7.6704</v>
+        <v>7.6703999999999999</v>
       </c>
       <c r="E22">
-        <v>3.83333</v>
+        <v>3.8333300000000001</v>
       </c>
       <c r="F22">
-        <v>7.61333</v>
+        <v>7.6133300000000004</v>
       </c>
       <c r="G22">
-        <v>0.05707</v>
+        <v>5.7070000000000003E-2</v>
       </c>
       <c r="H22">
-        <v>9.07203</v>
+        <v>9.0720299999999998</v>
       </c>
       <c r="I22">
-        <v>6.47584</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J22">
         <v>7.46</v>
       </c>
       <c r="K22">
-        <v>1.61203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>1.6120300000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>150</v>
       </c>
@@ -1191,31 +1209,31 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>7.67627</v>
+        <v>7.6762699999999997</v>
       </c>
       <c r="E23">
-        <v>3.45333</v>
+        <v>3.4533299999999998</v>
       </c>
       <c r="F23">
         <v>7.6</v>
       </c>
       <c r="G23">
-        <v>0.07627</v>
+        <v>7.6270000000000004E-2</v>
       </c>
       <c r="H23">
-        <v>9.66611</v>
+        <v>9.6661099999999998</v>
       </c>
       <c r="I23">
-        <v>6.47584</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J23">
         <v>7.46</v>
       </c>
       <c r="K23">
-        <v>2.20611</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>2.2061099999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>150</v>
       </c>
@@ -1226,13 +1244,13 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>7.79253</v>
+        <v>7.7925300000000002</v>
       </c>
       <c r="E24">
         <v>3.32667</v>
       </c>
       <c r="F24">
-        <v>7.61333</v>
+        <v>7.6133300000000004</v>
       </c>
       <c r="G24">
         <v>0.1792</v>
@@ -1241,16 +1259,16 @@
         <v>10.29373</v>
       </c>
       <c r="I24">
-        <v>6.47584</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J24">
         <v>7.46</v>
       </c>
       <c r="K24">
-        <v>2.83373</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>2.8337300000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>150</v>
       </c>
@@ -1261,31 +1279,31 @@
         <v>6</v>
       </c>
       <c r="D25">
-        <v>7.89227</v>
+        <v>7.8922699999999999</v>
       </c>
       <c r="E25">
-        <v>2.63333</v>
+        <v>2.6333299999999999</v>
       </c>
       <c r="F25">
         <v>7.78</v>
       </c>
       <c r="G25">
-        <v>0.11227</v>
+        <v>0.11226999999999999</v>
       </c>
       <c r="H25">
         <v>11.10488</v>
       </c>
       <c r="I25">
-        <v>6.47584</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J25">
         <v>7.46</v>
       </c>
       <c r="K25">
-        <v>3.64488</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>3.6448800000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>150</v>
       </c>
@@ -1296,31 +1314,31 @@
         <v>7</v>
       </c>
       <c r="D26">
-        <v>8.055999999999999</v>
+        <v>8.0559999999999992</v>
       </c>
       <c r="E26">
-        <v>2.70667</v>
+        <v>2.7066699999999999</v>
       </c>
       <c r="F26">
-        <v>7.83333</v>
+        <v>7.8333300000000001</v>
       </c>
       <c r="G26">
-        <v>0.22267</v>
+        <v>0.22267000000000001</v>
       </c>
       <c r="H26">
-        <v>11.67261</v>
+        <v>11.672610000000001</v>
       </c>
       <c r="I26">
-        <v>6.47584</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J26">
         <v>7.46</v>
       </c>
       <c r="K26">
-        <v>4.21261</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>4.2126099999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>150</v>
       </c>
@@ -1331,31 +1349,31 @@
         <v>3</v>
       </c>
       <c r="D27">
-        <v>7.66467</v>
+        <v>7.6646700000000001</v>
       </c>
       <c r="E27">
         <v>3.73333</v>
       </c>
       <c r="F27">
-        <v>7.61333</v>
+        <v>7.6133300000000004</v>
       </c>
       <c r="G27">
-        <v>0.05133</v>
+        <v>5.1330000000000001E-2</v>
       </c>
       <c r="H27">
-        <v>9.787039999999999</v>
+        <v>9.7870399999999993</v>
       </c>
       <c r="I27">
-        <v>6.6532</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J27">
         <v>7.46</v>
       </c>
       <c r="K27">
-        <v>2.32704</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>2.3270400000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>150</v>
       </c>
@@ -1366,22 +1384,22 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>7.696</v>
+        <v>7.6959999999999997</v>
       </c>
       <c r="E28">
         <v>3.42</v>
       </c>
       <c r="F28">
-        <v>7.60667</v>
+        <v>7.6066700000000003</v>
       </c>
       <c r="G28">
-        <v>0.08933000000000001</v>
+        <v>8.9330000000000007E-2</v>
       </c>
       <c r="H28">
         <v>10.92224</v>
       </c>
       <c r="I28">
-        <v>6.6532</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J28">
         <v>7.46</v>
@@ -1390,7 +1408,7 @@
         <v>3.46224</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>150</v>
       </c>
@@ -1401,31 +1419,31 @@
         <v>5</v>
       </c>
       <c r="D29">
-        <v>7.86067</v>
+        <v>7.8606699999999998</v>
       </c>
       <c r="E29">
-        <v>3.18667</v>
+        <v>3.1866699999999999</v>
       </c>
       <c r="F29">
-        <v>7.72667</v>
+        <v>7.7266700000000004</v>
       </c>
       <c r="G29">
-        <v>0.134</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="H29">
         <v>11.77727</v>
       </c>
       <c r="I29">
-        <v>6.6532</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J29">
         <v>7.46</v>
       </c>
       <c r="K29">
-        <v>4.31727</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>4.3172699999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>150</v>
       </c>
@@ -1436,31 +1454,31 @@
         <v>6</v>
       </c>
       <c r="D30">
-        <v>7.94867</v>
+        <v>7.9486699999999999</v>
       </c>
       <c r="E30">
         <v>2.56</v>
       </c>
       <c r="F30">
-        <v>7.70667</v>
+        <v>7.7066699999999999</v>
       </c>
       <c r="G30">
-        <v>0.242</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="H30">
-        <v>12.31139</v>
+        <v>12.311389999999999</v>
       </c>
       <c r="I30">
-        <v>6.6532</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J30">
         <v>7.46</v>
       </c>
       <c r="K30">
-        <v>4.85139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>4.8513900000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>150</v>
       </c>
@@ -1471,7 +1489,7 @@
         <v>7</v>
       </c>
       <c r="D31">
-        <v>8.09867</v>
+        <v>8.0986700000000003</v>
       </c>
       <c r="E31">
         <v>2.64</v>
@@ -1480,19 +1498,19 @@
         <v>7.86</v>
       </c>
       <c r="G31">
-        <v>0.23867</v>
+        <v>0.23866999999999999</v>
       </c>
       <c r="H31">
         <v>12.75079</v>
       </c>
       <c r="I31">
-        <v>6.6532</v>
+        <v>6.9889799999999997</v>
       </c>
       <c r="J31">
         <v>7.46</v>
       </c>
       <c r="K31">
-        <v>5.29079</v>
+        <v>5.2907900000000003</v>
       </c>
     </row>
   </sheetData>
